--- a/SecondLife (Maps - Main)/kml data.xlsx
+++ b/SecondLife (Maps - Main)/kml data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerald/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerald/Desktop/Github Stuff/atomic-karma-warthogs/SecondLife (Maps - Main)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9BDC8F-0523-FE43-87D7-7A7B4A2F2139}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B04F60-BF21-654F-A5B8-58514FE4AAD1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="460" windowWidth="14620" windowHeight="15880" xr2:uid="{156F8E4D-736A-DF4F-981B-65EF7C99FADC}"/>
+    <workbookView xWindow="13140" yWindow="0" windowWidth="15660" windowHeight="18000" xr2:uid="{156F8E4D-736A-DF4F-981B-65EF7C99FADC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="20">
   <si>
     <t>INFO ELEMENT</t>
   </si>
@@ -72,10 +72,19 @@
     <t>Unit number</t>
   </si>
   <si>
-    <t>Company Name</t>
-  </si>
-  <si>
     <t>E-Waste(incorrect)</t>
+  </si>
+  <si>
+    <t>Unit Number</t>
+  </si>
+  <si>
+    <t>no unit number</t>
+  </si>
+  <si>
+    <t>no street name</t>
+  </si>
+  <si>
+    <t>Unit Number (#)</t>
   </si>
 </sst>
 </file>
@@ -91,12 +100,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,11 +443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F049736-1A3E-D748-BD96-8B436F3C6D8E}">
-  <dimension ref="A1:XFD15"/>
+  <dimension ref="A1:XFC17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,10 +455,14 @@
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9 16384:16384" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9 16384:16384" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>8</v>
       </c>
@@ -470,13 +490,19 @@
         <v>9</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9 16384:16384" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -501,8 +527,14 @@
       <c r="I3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9 16384:16384" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -512,7 +544,7 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
@@ -527,11 +559,17 @@
       <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="XFD4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9 16384:16384" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="XFC4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -547,24 +585,30 @@
       <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:9 16384:16384" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
@@ -577,13 +621,19 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9 16384:16384" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -603,13 +653,19 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9 16384:16384" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -629,13 +685,19 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9 16384:16384" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -655,13 +717,19 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
         <v>11</v>
       </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9 16384:16384" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -684,10 +752,16 @@
         <v>7</v>
       </c>
       <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9 16384:16384" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -701,42 +775,76 @@
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:9 16384:16384" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9 16384:16384" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9 16384:16384" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9 16384:16384" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/SecondLife (Maps - Main)/kml data.xlsx
+++ b/SecondLife (Maps - Main)/kml data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerald/Desktop/Github Stuff/atomic-karma-warthogs/SecondLife (Maps - Main)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B04F60-BF21-654F-A5B8-58514FE4AAD1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B300019F-E001-DC4C-84E2-0280BAB3569B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="0" windowWidth="15660" windowHeight="18000" xr2:uid="{156F8E4D-736A-DF4F-981B-65EF7C99FADC}"/>
+    <workbookView xWindow="13140" yWindow="460" windowWidth="15660" windowHeight="15880" xr2:uid="{156F8E4D-736A-DF4F-981B-65EF7C99FADC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
   <si>
     <t>INFO ELEMENT</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Warning</t>
-  </si>
-  <si>
-    <t>Exact Location</t>
   </si>
   <si>
     <t>Website</t>
@@ -446,8 +443,8 @@
   <dimension ref="A1:XFC17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G18" sqref="G18"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,7 +467,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
@@ -545,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -586,19 +583,19 @@
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
@@ -609,7 +606,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -627,10 +624,10 @@
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
@@ -644,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -824,27 +821,27 @@
     </row>
     <row r="16" spans="1:11 16383:16383" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
         <v>17</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
         <v>17</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
